--- a/测试/测试3.xlsx
+++ b/测试/测试3.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99C7691-938E-4E27-94FD-A0AB88535E91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +70,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +347,248 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>